--- a/excel/templates/estimation.xlsx
+++ b/excel/templates/estimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiki_takeuchi\PycharmProjects\tp-paperwork\excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\tp-paperwork\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="21" r:id="rId1"/>
@@ -224,20 +224,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,###"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="&quot;　　　　　　&quot;@"/>
-    <numFmt numFmtId="181" formatCode="&quot; 見積有効期限　&quot;@"/>
-    <numFmt numFmtId="182" formatCode="&quot; 支 払  条 件 &quot;@"/>
-    <numFmt numFmtId="183" formatCode="[$-411]&quot;～&quot;ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;作業遂行責任者&quot;@"/>
-    <numFmt numFmtId="185" formatCode="&quot;　&quot;&quot;¥&quot;#,##0&quot;.-&quot;"/>
-    <numFmt numFmtId="186" formatCode="[$-411]&quot;　&quot;ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;　&quot;@"/>
-    <numFmt numFmtId="188" formatCode="&quot;　&quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="&quot;御見積書　No.&quot;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="&quot;　　　　　　&quot;@"/>
+    <numFmt numFmtId="179" formatCode="&quot; 見積有効期限　&quot;@"/>
+    <numFmt numFmtId="180" formatCode="&quot; 支 払  条 件 &quot;@"/>
+    <numFmt numFmtId="181" formatCode="[$-411]&quot;～&quot;ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;作業遂行責任者&quot;@"/>
+    <numFmt numFmtId="183" formatCode="&quot;　&quot;&quot;¥&quot;#,##0&quot;.-&quot;"/>
+    <numFmt numFmtId="184" formatCode="[$-411]&quot;　&quot;ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="&quot;　&quot;@"/>
+    <numFmt numFmtId="186" formatCode="&quot;御見積書　No.&quot;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -613,7 +612,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,10 +622,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -645,7 +644,7 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,23 +653,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -678,7 +674,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,13 +683,43 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,35 +737,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,40 +1280,42 @@
   </sheetPr>
   <dimension ref="B1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1326,26 +1327,26 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -1360,14 +1361,14 @@
       <c r="M5" s="7"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1385,21 +1386,21 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="5"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="12"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -1409,15 +1410,15 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -1427,155 +1428,155 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+    <row r="11" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I13" s="54" t="s">
+    <row r="13" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="2:16" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
+    <row r="14" spans="2:16" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="35">
+      <c r="D14" s="58"/>
+      <c r="E14" s="34">
         <f>G26</f>
         <v>0</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="5"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="56" t="s">
+    <row r="15" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="63" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="63" t="s">
+      <c r="K15" s="44"/>
+      <c r="L15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="45"/>
+      <c r="M15" s="44"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="56" t="s">
+    <row r="16" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="31"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="45"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="56" t="s">
+    <row r="17" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="31"/>
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="45"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="2:35" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="2:35" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="31" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="17"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="47"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="46"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="56" t="s">
+    <row r="19" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="31" t="s">
         <v>22</v>
       </c>
@@ -1583,71 +1584,71 @@
       <c r="G19" s="17"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="57" t="s">
+    <row r="22" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="2:35" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:35" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="62"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="54"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="2:35" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:35" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1664,7 +1665,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1681,7 +1682,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1698,7 +1699,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1715,7 +1716,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1732,7 +1733,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1765,7 +1766,7 @@
       <c r="AH29" s="22"/>
       <c r="AI29" s="22"/>
     </row>
-    <row r="30" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1798,7 +1799,7 @@
       <c r="AH30" s="22"/>
       <c r="AI30" s="22"/>
     </row>
-    <row r="31" spans="2:35" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:35" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1834,7 +1835,7 @@
       <c r="AH31" s="25"/>
       <c r="AI31" s="25"/>
     </row>
-    <row r="32" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1851,7 +1852,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1868,7 +1869,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -1885,7 +1886,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -1902,7 +1903,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:35" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -1935,78 +1936,84 @@
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
     </row>
-    <row r="37" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="14:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="14:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="14:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="14:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="I11:M12"/>
+    <mergeCell ref="I13:M13"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:M22"/>
     <mergeCell ref="C23:F23"/>
@@ -2017,12 +2024,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="I11:M12"/>
-    <mergeCell ref="I13:M13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLinesSet="0"/>
